--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/52.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/52.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1193224253834657</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.569825033211822</v>
+        <v>-1.578745786581794</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01315025688906682</v>
+        <v>0.006392992801322969</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1582257969999095</v>
+        <v>-0.1695666047688809</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1107850091125935</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.5792376675572</v>
+        <v>-1.595151787883111</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02325703366693854</v>
+        <v>0.01275203005137775</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1235454337002914</v>
+        <v>-0.1369041339827703</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1135358626939344</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.6491351346768</v>
+        <v>-1.658336063450363</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.03346117135001045</v>
+        <v>-0.04340425013926689</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1303184379792483</v>
+        <v>-0.1459090973757316</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1257127451146917</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.781773790981005</v>
+        <v>-1.786062206076989</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.07826090358047062</v>
+        <v>-0.07805155903733763</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1384104702818551</v>
+        <v>-0.1555090399965445</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1392291189287613</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.813991601365349</v>
+        <v>-1.796782063302607</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.09730181289084504</v>
+        <v>-0.09123554319735219</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1356921392593688</v>
+        <v>-0.1515047353519555</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1480707793239841</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.635992075013939</v>
+        <v>-1.620839779942738</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.08527945484235039</v>
+        <v>-0.06087271434746192</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1288860805788646</v>
+        <v>-0.1408706621684481</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1504159067830413</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.326374643758487</v>
+        <v>-1.332329158094368</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.09163062199679867</v>
+        <v>-0.06712157025902565</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.09297640834551076</v>
+        <v>-0.111382987950001</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.145691724023323</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8408220122292116</v>
+        <v>-0.8709298499814512</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0228160800326539</v>
+        <v>0.01136846724375444</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.09374767771494809</v>
+        <v>-0.1032720674179386</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1334776602062323</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3286590134352266</v>
+        <v>-0.3736161475778169</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02247451788333164</v>
+        <v>0.02827028456828123</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02431139819788955</v>
+        <v>-0.04452337773451168</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1110607887034836</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2251312820502369</v>
+        <v>0.1643788660253943</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05210700186093839</v>
+        <v>-0.00747411565733609</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04826347544704256</v>
+        <v>0.0268284830531698</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.07677007601720517</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8601708705581207</v>
+        <v>0.7835161393507772</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1153605342695278</v>
+        <v>-0.04721337641281455</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1243389676177474</v>
+        <v>0.1084728548750365</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.02822843822542546</v>
       </c>
       <c r="E13" t="n">
-        <v>1.520961411890484</v>
+        <v>1.418451842596655</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2672281951691034</v>
+        <v>-0.1913777877327446</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2273112985332384</v>
+        <v>0.2087787973990441</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.03467300599540567</v>
       </c>
       <c r="E14" t="n">
-        <v>2.177560340302823</v>
+        <v>2.064213649358839</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5023173950500889</v>
+        <v>-0.4242381765379683</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3401574513966486</v>
+        <v>0.318006280302584</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1112836053088256</v>
       </c>
       <c r="E15" t="n">
-        <v>2.870964557828537</v>
+        <v>2.741572315962014</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7958483508858477</v>
+        <v>-0.710220136667969</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4806197697432794</v>
+        <v>0.4505497084499511</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1985013708565209</v>
       </c>
       <c r="E16" t="n">
-        <v>3.540372853850021</v>
+        <v>3.404712867842478</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.033593708034028</v>
+        <v>-0.9464158719912289</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6419173791985674</v>
+        <v>0.6078886598151678</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2904898225564364</v>
       </c>
       <c r="E17" t="n">
-        <v>4.187946356620822</v>
+        <v>4.044257299075524</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.313166262302092</v>
+        <v>-1.208969344510229</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8125851244829584</v>
+        <v>0.7772814496113052</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.3817871165497572</v>
       </c>
       <c r="E18" t="n">
-        <v>4.832171920720617</v>
+        <v>4.667630257856327</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.529073678161347</v>
+        <v>-1.42976094170288</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9669350135368251</v>
+        <v>0.9320374355984675</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4688159383319968</v>
       </c>
       <c r="E19" t="n">
-        <v>5.316603063625966</v>
+        <v>5.154537332839483</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.751499894211469</v>
+        <v>-1.641520030167947</v>
       </c>
       <c r="G19" t="n">
-        <v>1.136622144908646</v>
+        <v>1.09894327518295</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5495207461268716</v>
       </c>
       <c r="E20" t="n">
-        <v>5.735073361234088</v>
+        <v>5.556238030729268</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.903857075057769</v>
+        <v>-1.799932462573891</v>
       </c>
       <c r="G20" t="n">
-        <v>1.265140806162847</v>
+        <v>1.22701334098758</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6219955223983362</v>
       </c>
       <c r="E21" t="n">
-        <v>6.039683837664682</v>
+        <v>5.865136135246285</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.104975007253282</v>
+        <v>-2.010282016915833</v>
       </c>
       <c r="G21" t="n">
-        <v>1.384493954073714</v>
+        <v>1.349898587806646</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6862884243276175</v>
       </c>
       <c r="E22" t="n">
-        <v>6.361950086578906</v>
+        <v>6.184690349214508</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.21365551851217</v>
+        <v>-2.135121408473994</v>
       </c>
       <c r="G22" t="n">
-        <v>1.484052237515104</v>
+        <v>1.451285881466988</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7413627132041435</v>
       </c>
       <c r="E23" t="n">
-        <v>6.496509833220659</v>
+        <v>6.320273208285106</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.308509845809553</v>
+        <v>-2.240902576511445</v>
       </c>
       <c r="G23" t="n">
-        <v>1.587761209379364</v>
+        <v>1.556712108192586</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7875589876919404</v>
       </c>
       <c r="E24" t="n">
-        <v>6.640521564685823</v>
+        <v>6.4717505124426</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.370737904760615</v>
+        <v>-2.315159289587487</v>
       </c>
       <c r="G24" t="n">
-        <v>1.597819191564475</v>
+        <v>1.56672444382318</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8238641167694792</v>
       </c>
       <c r="E25" t="n">
-        <v>6.72419956921241</v>
+        <v>6.548554775466466</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.379666528226193</v>
+        <v>-2.323921067026208</v>
       </c>
       <c r="G25" t="n">
-        <v>1.648055585839908</v>
+        <v>1.617395267376092</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8506258030093365</v>
       </c>
       <c r="E26" t="n">
-        <v>6.732894450838475</v>
+        <v>6.575657810716143</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.397508034966136</v>
+        <v>-2.331915510143294</v>
       </c>
       <c r="G26" t="n">
-        <v>1.687055057608375</v>
+        <v>1.671050431182989</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8681567989731287</v>
       </c>
       <c r="E27" t="n">
-        <v>6.68214650034862</v>
+        <v>6.530758915281041</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.320191428718286</v>
+        <v>-2.271544006745806</v>
       </c>
       <c r="G27" t="n">
-        <v>1.647624304600671</v>
+        <v>1.627596485301241</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8778896350462452</v>
       </c>
       <c r="E28" t="n">
-        <v>6.575709753347145</v>
+        <v>6.439843570834713</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.270389463720332</v>
+        <v>-2.238396738070335</v>
       </c>
       <c r="G28" t="n">
-        <v>1.604629972302343</v>
+        <v>1.596922000665334</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8814888429400252</v>
       </c>
       <c r="E29" t="n">
-        <v>6.4334137027242</v>
+        <v>6.312913094873904</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.191350093544218</v>
+        <v>-2.156765745410999</v>
       </c>
       <c r="G29" t="n">
-        <v>1.559044804530354</v>
+        <v>1.556864788047353</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.8808709615959704</v>
       </c>
       <c r="E30" t="n">
-        <v>6.266356757304073</v>
+        <v>6.162824075581399</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.158510545606961</v>
+        <v>-2.125808724342818</v>
       </c>
       <c r="G30" t="n">
-        <v>1.490581268830259</v>
+        <v>1.485470428743396</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.8778276474973663</v>
       </c>
       <c r="E31" t="n">
-        <v>6.00658378956285</v>
+        <v>5.918298631068216</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.005472601490698</v>
+        <v>-1.989908700419277</v>
       </c>
       <c r="G31" t="n">
-        <v>1.414420779627004</v>
+        <v>1.408080630606405</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8727049187415749</v>
       </c>
       <c r="E32" t="n">
-        <v>5.766061075675134</v>
+        <v>5.690756852873866</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.893417393235742</v>
+        <v>-1.885150644810671</v>
       </c>
       <c r="G32" t="n">
-        <v>1.340833811687076</v>
+        <v>1.34651444669585</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8649174833494394</v>
       </c>
       <c r="E33" t="n">
-        <v>5.429737261988573</v>
+        <v>5.372405189514318</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.836186057985249</v>
+        <v>-1.830108770157907</v>
       </c>
       <c r="G33" t="n">
-        <v>1.266582607677958</v>
+        <v>1.274300023429696</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8528308569605457</v>
       </c>
       <c r="E34" t="n">
-        <v>5.140890587057806</v>
+        <v>5.101050589078564</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.75879862087694</v>
+        <v>-1.748643836515869</v>
       </c>
       <c r="G34" t="n">
-        <v>1.155200292597358</v>
+        <v>1.167350146194678</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.83488282160341</v>
       </c>
       <c r="E35" t="n">
-        <v>4.759974811664796</v>
+        <v>4.735574367246393</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.7129584620073</v>
+        <v>-1.705700659838983</v>
       </c>
       <c r="G35" t="n">
-        <v>1.078063911538896</v>
+        <v>1.090383759201317</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8103209748214694</v>
       </c>
       <c r="E36" t="n">
-        <v>4.312194703998935</v>
+        <v>4.295754074276949</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.642236208868139</v>
+        <v>-1.644128179851942</v>
       </c>
       <c r="G36" t="n">
-        <v>1.016705498152353</v>
+        <v>1.032275695300259</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7796319553462862</v>
       </c>
       <c r="E37" t="n">
-        <v>3.954332012656495</v>
+        <v>3.955629004412447</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.60611483106297</v>
+        <v>-1.609210926674568</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9353664860400185</v>
+        <v>0.9500819908050586</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7442575509636209</v>
       </c>
       <c r="E38" t="n">
-        <v>3.621247530321571</v>
+        <v>3.635091028493411</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.520482681797288</v>
+        <v>-1.521773377476755</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8451720423512464</v>
+        <v>0.862569675698983</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7055714168515114</v>
       </c>
       <c r="E39" t="n">
-        <v>3.210165678468835</v>
+        <v>3.235877280815281</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.494848206387785</v>
+        <v>-1.498842279908085</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7759230711096228</v>
+        <v>0.7902749774576424</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6661280095578525</v>
       </c>
       <c r="E40" t="n">
-        <v>2.816087955183509</v>
+        <v>2.856845606310469</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.485297845369293</v>
+        <v>-1.491158705567456</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7056446913626683</v>
+        <v>0.7240874734069485</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6270539623702112</v>
       </c>
       <c r="E41" t="n">
-        <v>2.470068183709736</v>
+        <v>2.51287520773263</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.455623649884972</v>
+        <v>-1.464556208398353</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6538594622718756</v>
+        <v>0.674271342236903</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5897161317066895</v>
       </c>
       <c r="E42" t="n">
-        <v>2.104236233556152</v>
+        <v>2.153345630140733</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.421928622555288</v>
+        <v>-1.43066836372631</v>
       </c>
       <c r="G42" t="n">
-        <v>0.588002502236655</v>
+        <v>0.6059699305063022</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5537970274364127</v>
       </c>
       <c r="E43" t="n">
-        <v>1.856468309653089</v>
+        <v>1.906451286849993</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.391809766669199</v>
+        <v>-1.397472300458078</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5117113694463319</v>
+        <v>0.5324364792164981</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.519194119340247</v>
       </c>
       <c r="E44" t="n">
-        <v>1.629213002938817</v>
+        <v>1.672622876285169</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.386661150123425</v>
+        <v>-1.396066701382757</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4390200183864235</v>
+        <v>0.4573840994746387</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.484840856122484</v>
       </c>
       <c r="E45" t="n">
-        <v>1.408494597635307</v>
+        <v>1.453809034118432</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.314679681687223</v>
+        <v>-1.326724863012976</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3830085479549385</v>
+        <v>0.4067542004188807</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.4494661846781775</v>
       </c>
       <c r="E46" t="n">
-        <v>1.184140208161592</v>
+        <v>1.231475685196468</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.252492547233315</v>
+        <v>-1.262075175643793</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3383819578278214</v>
+        <v>0.3573126857997048</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4122554373049958</v>
       </c>
       <c r="E47" t="n">
-        <v>1.051170220832353</v>
+        <v>1.101312173960507</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.201095313855923</v>
+        <v>-1.216918928082358</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2654749661482949</v>
+        <v>0.2872357805002769</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.373926364455984</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8716722282774648</v>
+        <v>0.9103332859348524</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.12413915798685</v>
+        <v>-1.142435556252849</v>
       </c>
       <c r="G48" t="n">
-        <v>0.197743349339605</v>
+        <v>0.2153015326377141</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3360294301644018</v>
       </c>
       <c r="E49" t="n">
-        <v>0.707736562774877</v>
+        <v>0.7516469742018023</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.06081164667956</v>
+        <v>-1.076655723154572</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1525327981184853</v>
+        <v>0.1716398162319544</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3002116335064398</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6235721863398078</v>
+        <v>0.6684616376601822</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9993218026963876</v>
+        <v>-1.009536399784069</v>
       </c>
       <c r="G50" t="n">
-        <v>0.130095155544344</v>
+        <v>0.1441810526608639</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2672567899571671</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5011497011424043</v>
+        <v>0.5447563268789185</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9774736302831734</v>
+        <v>-0.9859111597829058</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1129163108544683</v>
+        <v>0.1196436685789075</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2372688278038764</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3495134210536599</v>
+        <v>0.3803374375060913</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9673141238647381</v>
+        <v>-0.9721723338826327</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05949567589664427</v>
+        <v>0.07049492151629348</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2100284159763298</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2864676591690822</v>
+        <v>0.3266665335079804</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9476640691544204</v>
+        <v>-0.9623276312884576</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05758481668338524</v>
+        <v>0.06399579656444294</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1855340457357175</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1684382613392288</v>
+        <v>0.1889068059926229</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9088432485562208</v>
+        <v>-0.9156737045331051</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01735446196206096</v>
+        <v>0.02320823907417822</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1641817509459917</v>
       </c>
       <c r="E55" t="n">
-        <v>0.101230792897932</v>
+        <v>0.1065147750881384</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9133630444630357</v>
+        <v>-0.9161663725180722</v>
       </c>
       <c r="G55" t="n">
-        <v>0.001494645295835229</v>
+        <v>0.009227801238785508</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1457100864505276</v>
       </c>
       <c r="E56" t="n">
-        <v>0.02146265186865575</v>
+        <v>0.02166097827793964</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9182306985956581</v>
+        <v>-0.916293081057337</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.03310859106683909</v>
+        <v>-0.02584921487940032</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.12999185761677</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07869848089619222</v>
+        <v>-0.08065498666396896</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9411484170017961</v>
+        <v>-0.9363830741120583</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.07157919241054921</v>
+        <v>-0.06629521022034279</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1161643330335522</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1219824327128398</v>
+        <v>-0.1279259289148712</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.936381500092937</v>
+        <v>-0.9287199620200058</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.09892147856666345</v>
+        <v>-0.09441506182237958</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1041839873679492</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1975904412045184</v>
+        <v>-0.207121126983994</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9449237018642358</v>
+        <v>-0.9426610493773661</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.113791237205591</v>
+        <v>-0.1163553143541899</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.09293617527715191</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2791372238408644</v>
+        <v>-0.2959981166682374</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9727413417949828</v>
+        <v>-0.9628281693690312</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1243481834521548</v>
+        <v>-0.1291741260780627</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.08102806969026689</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3598434802664359</v>
+        <v>-0.384363550138058</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9536563599492121</v>
+        <v>-0.9453282247784101</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1598627768860622</v>
+        <v>-0.1642070696608521</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.06757804195540354</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4823745727832092</v>
+        <v>-0.502888763991121</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9782952682644923</v>
+        <v>-0.9663681383728364</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1821115371656474</v>
+        <v>-0.1859033492288608</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.05192452630843195</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5337442608259785</v>
+        <v>-0.5525411971725512</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.001678109320975</v>
+        <v>-0.9790626025861264</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2144418899171635</v>
+        <v>-0.2157656399981774</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.0340153575740986</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6732700377954354</v>
+        <v>-0.6929736091558774</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.038795054220366</v>
+        <v>-1.01411207336969</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2616530194414564</v>
+        <v>-0.260708607968676</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.01419014630657328</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.830399644617519</v>
+        <v>-0.8511822060856127</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.097287965796582</v>
+        <v>-1.067885288610685</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3210187246204331</v>
+        <v>-0.318322429865645</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.006870545210519598</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.937502201707303</v>
+        <v>-0.9557671195908762</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.125281108859354</v>
+        <v>-1.093922712915241</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.35414867908557</v>
+        <v>-0.3545610720953508</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.02846257110920231</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.017276638813065</v>
+        <v>-1.026724688588672</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.179716986150417</v>
+        <v>-1.145749653512748</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4106606875976286</v>
+        <v>-0.400402804984112</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.04918986723758029</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.108343876104598</v>
+        <v>-1.104489890286093</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.233442193808213</v>
+        <v>-1.191840081422675</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4328496351506044</v>
+        <v>-0.4341009803520384</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.06802521989447123</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.253331499424968</v>
+        <v>-1.234397623414842</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.288920071757577</v>
+        <v>-1.244435930360937</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4637381863870091</v>
+        <v>-0.4626914636713441</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.08313476722494187</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.306249235273536</v>
+        <v>-1.283069442683702</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.371069703717381</v>
+        <v>-1.316178934900262</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4972112770205895</v>
+        <v>-0.4915259199544514</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.09313239066433</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.35904026258284</v>
+        <v>-1.329049689255138</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.402448561910071</v>
+        <v>-1.33881805192193</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5492278869222134</v>
+        <v>-0.5374605199713693</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.09680276349850066</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.427658052156823</v>
+        <v>-1.396627839199501</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.450068149396341</v>
+        <v>-1.387936105611678</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5369143353362781</v>
+        <v>-0.5191672697436128</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.0935742281120544</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.462997142458705</v>
+        <v>-1.410912062725304</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.458175921890161</v>
+        <v>-1.397082730725557</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5621253996021511</v>
+        <v>-0.5391919410048002</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.08341925934831118</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.505513759953718</v>
+        <v>-1.447515877391152</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.490965888225097</v>
+        <v>-1.429219479125153</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5687457240263418</v>
+        <v>-0.545451815050213</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.06648792974686651</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.496075154292839</v>
+        <v>-1.42937373299904</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.484947626114804</v>
+        <v>-1.426911967093326</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.586947681145063</v>
+        <v>-0.5634979442759254</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.04350570388846439</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.410160468594883</v>
+        <v>-1.348026063781539</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.541701246561982</v>
+        <v>-1.477114519957651</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5685017510625402</v>
+        <v>-0.5434197563646138</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.01529512146535141</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.354387462060275</v>
+        <v>-1.308399345393233</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.550324510318028</v>
+        <v>-1.490247348496223</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5450913646714352</v>
+        <v>-0.5209333191977121</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.01766432735183891</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.185964268042859</v>
+        <v>-1.138492638353991</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.502845797543114</v>
+        <v>-1.447951880687752</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5048531398545043</v>
+        <v>-0.4815371946106772</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.05422268348692272</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.065096913737301</v>
+        <v>-1.021432049293298</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.485951063304633</v>
+        <v>-1.43732410358073</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5066128932321184</v>
+        <v>-0.4748853898040605</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.09377073417868743</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.8872359010685656</v>
+        <v>-0.8464585747025893</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.455914843422413</v>
+        <v>-1.409402578387977</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.492445147121291</v>
+        <v>-0.4616053904776466</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.1351164752320571</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.7413243285239919</v>
+        <v>-0.698965899950669</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.429088048528524</v>
+        <v>-1.390233386519217</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4624978593194241</v>
+        <v>-0.431470794400345</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1769612060581696</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.5406132802713347</v>
+        <v>-0.5102331372111101</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.427733605074645</v>
+        <v>-1.389610074947182</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4184914327260995</v>
+        <v>-0.3937431300818888</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.217945906270667</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3344797361457966</v>
+        <v>-0.3074003111829395</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.347202064771538</v>
+        <v>-1.323031427144844</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3371036260210049</v>
+        <v>-0.3139466567084291</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2567331735788731</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.1492759242761938</v>
+        <v>-0.1266556954839816</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.323875888403422</v>
+        <v>-1.313403152179848</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3147982010530528</v>
+        <v>-0.2933695047356652</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2914139311391612</v>
       </c>
       <c r="E85" t="n">
-        <v>0.04035717740074921</v>
+        <v>0.06189133299926392</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.207082882593351</v>
+        <v>-1.202212867432046</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2830250510704771</v>
+        <v>-0.2559314599355283</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.3210226234388118</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2956520607418717</v>
+        <v>0.3086345704543597</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.108267536177215</v>
+        <v>-1.110976423084973</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2198266093311332</v>
+        <v>-0.1889553723050628</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.3439391225697905</v>
       </c>
       <c r="E87" t="n">
-        <v>0.521700094790106</v>
+        <v>0.5287910509315656</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9871428297453235</v>
+        <v>-0.9959927522548366</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1585594890536252</v>
+        <v>-0.1322529074793268</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.3590625078686384</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6916500873551839</v>
+        <v>0.7027390520647473</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8410234866767381</v>
+        <v>-0.8506470395843705</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1351837310831887</v>
+        <v>-0.1055496730864606</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.3645269395280246</v>
       </c>
       <c r="E89" t="n">
-        <v>0.864689879455375</v>
+        <v>0.8734209635212299</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7255573789859229</v>
+        <v>-0.7316315187750222</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.08166235890160141</v>
+        <v>-0.06009987095890328</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.3592102682306728</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9963376907227219</v>
+        <v>1.006661682139333</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5485919831972078</v>
+        <v>-0.5686717451276407</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.06335651652087441</v>
+        <v>-0.04133913705212039</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.3423018520260573</v>
       </c>
       <c r="E91" t="n">
-        <v>1.113244812919088</v>
+        <v>1.120442802360796</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3546869936250548</v>
+        <v>-0.3739026190578936</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08487965398554001</v>
+        <v>-0.06053430023638227</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.3143886264208755</v>
       </c>
       <c r="E92" t="n">
-        <v>1.169185452490114</v>
+        <v>1.178539848128004</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.213821726383371</v>
+        <v>-0.2312398219796845</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.04749984789289128</v>
+        <v>-0.02514405431305761</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2774253678548964</v>
       </c>
       <c r="E93" t="n">
-        <v>1.200720925585374</v>
+        <v>1.220871518376265</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.112105462726678</v>
+        <v>-0.1292795853591898</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.04815621386647367</v>
+        <v>-0.02605698540341201</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.2341577975787277</v>
       </c>
       <c r="E94" t="n">
-        <v>1.178901872525904</v>
+        <v>1.194135229581851</v>
       </c>
       <c r="F94" t="n">
-        <v>0.03264448370637584</v>
+        <v>0.01371532975361377</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01502625940133679</v>
+        <v>0.001631584959388389</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1876274806855321</v>
       </c>
       <c r="E95" t="n">
-        <v>1.183715222998841</v>
+        <v>1.193749594897133</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1123669781811344</v>
+        <v>0.09081236033404276</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.05145378392559861</v>
+        <v>-0.03448743181709849</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1421441274699743</v>
       </c>
       <c r="E96" t="n">
-        <v>1.102753975475619</v>
+        <v>1.113545450571256</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1915417140016803</v>
+        <v>0.1645189537271901</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.08241159200334054</v>
+        <v>-0.07009961443652656</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1032185097346243</v>
       </c>
       <c r="E97" t="n">
-        <v>1.050561075432409</v>
+        <v>1.056729656368787</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2378304683208909</v>
+        <v>0.212337654632305</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05112953598661066</v>
+        <v>-0.03893875789213684</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.07408803278163739</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9366587557386064</v>
+        <v>0.9462508282638128</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2210089259715504</v>
+        <v>0.1961551640462126</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1084820707094438</v>
+        <v>-0.09701219337252572</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.05537670264480486</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8987548012785646</v>
+        <v>0.9005932556122437</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2063516599139985</v>
+        <v>0.1902321300927581</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.0962865705576061</v>
+        <v>-0.08738077036928681</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.04093931838812569</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8447092807295841</v>
+        <v>0.8456631363170923</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1985272108620127</v>
+        <v>0.1794721353795466</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09821946603856334</v>
+        <v>-0.08952930646986225</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.0272132310302134</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7836530790143305</v>
+        <v>0.7827228337136417</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1787213282586862</v>
+        <v>0.1659953836629701</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.08675745879725173</v>
+        <v>-0.0788810671142631</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.006915089471186723</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7723972682779092</v>
+        <v>0.7641478340631723</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1549410473740754</v>
+        <v>0.1461847790022797</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.07292183072101868</v>
+        <v>-0.06611734605963582</v>
       </c>
     </row>
   </sheetData>
